--- a/data/concepts_l1.xlsx
+++ b/data/concepts_l1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1048</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>832</v>
+        <v>964</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>480</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>375</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>360</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>346</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>332</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>325</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>295</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11">
@@ -466,17 +466,17 @@
         </is>
       </c>
       <c r="B11">
-        <v>241</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Economic system</t>
+          <t>Artificial intelligence</t>
         </is>
       </c>
       <c r="B12">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13">
@@ -486,17 +486,17 @@
         </is>
       </c>
       <c r="B13">
-        <v>227</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Artificial intelligence</t>
+          <t>Economic system</t>
         </is>
       </c>
       <c r="B14">
-        <v>220</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>199</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
@@ -566,27 +566,27 @@
         </is>
       </c>
       <c r="B21">
-        <v>146</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Process management</t>
+          <t>Economic growth</t>
         </is>
       </c>
       <c r="B22">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Economic growth</t>
+          <t>Process management</t>
         </is>
       </c>
       <c r="B23">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25">
@@ -606,17 +606,17 @@
         </is>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Neuroscience</t>
+          <t>Programming language</t>
         </is>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
@@ -626,47 +626,47 @@
         </is>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Programming language</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="B28">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Political economy</t>
+          <t>Neuroscience</t>
         </is>
       </c>
       <c r="B29">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Pathology</t>
         </is>
       </c>
       <c r="B30">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Natural resource economics</t>
+          <t>Political economy</t>
         </is>
       </c>
       <c r="B31">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -676,77 +676,77 @@
         </is>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pathology</t>
+          <t>Anthropology</t>
         </is>
       </c>
       <c r="B33">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Anthropology</t>
+          <t>Natural resource economics</t>
         </is>
       </c>
       <c r="B34">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Economic geography</t>
+          <t>Thermodynamics</t>
         </is>
       </c>
       <c r="B35">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Thermodynamics</t>
+          <t>Computer security</t>
         </is>
       </c>
       <c r="B36">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Machine learning</t>
+          <t>Economic geography</t>
         </is>
       </c>
       <c r="B37">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Computer security</t>
+          <t>Machine learning</t>
         </is>
       </c>
       <c r="B38">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mathematical analysis</t>
+          <t>Paleontology</t>
         </is>
       </c>
       <c r="B39">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
@@ -756,47 +756,47 @@
         </is>
       </c>
       <c r="B40">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Paleontology</t>
+          <t>Mathematical analysis</t>
         </is>
       </c>
       <c r="B41">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Risk analysis (engineering)</t>
+          <t>Mechanical engineering</t>
         </is>
       </c>
       <c r="B42">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Electrical engineering</t>
+          <t>Risk analysis (engineering)</t>
         </is>
       </c>
       <c r="B43">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mechanical engineering</t>
+          <t>Electrical engineering</t>
         </is>
       </c>
       <c r="B44">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
@@ -806,47 +806,47 @@
         </is>
       </c>
       <c r="B45">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Regional science</t>
+          <t>Cartography</t>
         </is>
       </c>
       <c r="B46">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>World Wide Web</t>
+          <t>Psychotherapist</t>
         </is>
       </c>
       <c r="B47">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Psychotherapist</t>
+          <t>World Wide Web</t>
         </is>
       </c>
       <c r="B48">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cartography</t>
+          <t>Regional science</t>
         </is>
       </c>
       <c r="B49">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52">
@@ -876,17 +876,17 @@
         </is>
       </c>
       <c r="B52">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Market economy</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="B53">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55">
@@ -906,47 +906,47 @@
         </is>
       </c>
       <c r="B55">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Market economy</t>
         </is>
       </c>
       <c r="B56">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Algorithm</t>
+          <t>Embedded system</t>
         </is>
       </c>
       <c r="B57">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Demography</t>
+          <t>Algorithm</t>
         </is>
       </c>
       <c r="B58">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>Optics</t>
         </is>
       </c>
       <c r="B59">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60">
@@ -956,57 +956,57 @@
         </is>
       </c>
       <c r="B60">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Optics</t>
+          <t>Economy</t>
         </is>
       </c>
       <c r="B61">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Oceanography</t>
+          <t>Demography</t>
         </is>
       </c>
       <c r="B62">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Embedded system</t>
+          <t>Positive economics</t>
         </is>
       </c>
       <c r="B63">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Positive economics</t>
+          <t>Structural engineering</t>
         </is>
       </c>
       <c r="B64">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Structural engineering</t>
+          <t>Financial economics</t>
         </is>
       </c>
       <c r="B65">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -1026,243 +1026,243 @@
         </is>
       </c>
       <c r="B67">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Law and economics</t>
+          <t>Evolutionary biology</t>
         </is>
       </c>
       <c r="B68">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Evolutionary biology</t>
+          <t>Data science</t>
         </is>
       </c>
       <c r="B69">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Financial economics</t>
+          <t>Law and economics</t>
         </is>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Data science</t>
+          <t>Oceanography</t>
         </is>
       </c>
       <c r="B71">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Geometry</t>
+          <t>Botany</t>
         </is>
       </c>
       <c r="B72">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aesthetics</t>
+          <t>Humanities</t>
         </is>
       </c>
       <c r="B73">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Geodesy</t>
+          <t>Literature</t>
         </is>
       </c>
       <c r="B74">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Neoclassical economics</t>
+          <t>Visual arts</t>
         </is>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Botany</t>
+          <t>Geodesy</t>
         </is>
       </c>
       <c r="B76">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Database</t>
+          <t>Neoclassical economics</t>
         </is>
       </c>
       <c r="B77">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Visual arts</t>
+          <t>Advertising</t>
         </is>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Agroforestry</t>
+          <t>Database</t>
         </is>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Literature</t>
+          <t>Geometry</t>
         </is>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Meteorology</t>
+          <t>Aesthetics</t>
         </is>
       </c>
       <c r="B81">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Software engineering</t>
+          <t>Agroforestry</t>
         </is>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Advertising</t>
+          <t>Software engineering</t>
         </is>
       </c>
       <c r="B83">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Humanities</t>
+          <t>Environmental engineering</t>
         </is>
       </c>
       <c r="B84">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Environmental engineering</t>
+          <t>Meteorology</t>
         </is>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>International trade</t>
+          <t>Organic chemistry</t>
         </is>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Nursing</t>
+          <t>Telecommunications</t>
         </is>
       </c>
       <c r="B87">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>Theology</t>
         </is>
       </c>
       <c r="B88">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Physical geography</t>
+          <t>Communication</t>
         </is>
       </c>
       <c r="B89">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Telecommunications</t>
+          <t>Nursing</t>
         </is>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Theology</t>
+          <t>Acoustics</t>
         </is>
       </c>
       <c r="B91">
@@ -1272,67 +1272,67 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Gender studies</t>
+          <t>Fishery</t>
         </is>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Library science</t>
+          <t>International trade</t>
         </is>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Data mining</t>
+          <t>Library science</t>
         </is>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Fishery</t>
+          <t>Architectural engineering</t>
         </is>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Forestry</t>
+          <t>Genetics</t>
         </is>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Genetics</t>
+          <t>Water resource management</t>
         </is>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Internet privacy</t>
+          <t>Accounting</t>
         </is>
       </c>
       <c r="B98">
@@ -1342,7 +1342,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Organic chemistry</t>
+          <t>Combinatorics</t>
         </is>
       </c>
       <c r="B99">
@@ -1352,7 +1352,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Systems engineering</t>
+          <t>Forestry</t>
         </is>
       </c>
       <c r="B100">
@@ -1362,7 +1362,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Water resource management</t>
+          <t>Gender studies</t>
         </is>
       </c>
       <c r="B101">
@@ -1372,187 +1372,187 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Acoustics</t>
+          <t>Internal medicine</t>
         </is>
       </c>
       <c r="B102">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Architectural engineering</t>
+          <t>Internet privacy</t>
         </is>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Agricultural economics</t>
+          <t>Media studies</t>
         </is>
       </c>
       <c r="B104">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Astronomy</t>
+          <t>Physical geography</t>
         </is>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Climatology</t>
+          <t>Socioeconomics</t>
         </is>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Developmental psychology</t>
+          <t>Agricultural economics</t>
         </is>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Operations management</t>
+          <t>Data mining</t>
         </is>
       </c>
       <c r="B108">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Socioeconomics</t>
+          <t>Developmental psychology</t>
         </is>
       </c>
       <c r="B109">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Accounting</t>
+          <t>Systems engineering</t>
         </is>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Astrobiology</t>
+          <t>Transport engineering</t>
         </is>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cognitive science</t>
+          <t>Aerospace engineering</t>
         </is>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Combinatorics</t>
+          <t>Astronomy</t>
         </is>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Internal medicine</t>
+          <t>Chromatography</t>
         </is>
       </c>
       <c r="B114">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Media studies</t>
+          <t>Climatology</t>
         </is>
       </c>
       <c r="B115">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Aerospace engineering</t>
+          <t>Operations management</t>
         </is>
       </c>
       <c r="B116">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Chromatography</t>
+          <t>Agricultural science</t>
         </is>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Composite material</t>
+          <t>Petroleum engineering</t>
         </is>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Econometrics</t>
+          <t>Virology</t>
         </is>
       </c>
       <c r="B119">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Environmental protection</t>
+          <t>Cognitive science</t>
         </is>
       </c>
       <c r="B120">
@@ -1562,7 +1562,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Mathematical economics</t>
+          <t>Econometrics</t>
         </is>
       </c>
       <c r="B121">
@@ -1572,7 +1572,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Petroleum engineering</t>
+          <t>Geotechnical engineering</t>
         </is>
       </c>
       <c r="B122">
@@ -1582,7 +1582,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Transport engineering</t>
+          <t>Information retrieval</t>
         </is>
       </c>
       <c r="B123">
@@ -1592,27 +1592,27 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Agricultural science</t>
+          <t>Ophthalmology</t>
         </is>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Art history</t>
+          <t>Reliability engineering</t>
         </is>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Clinical psychology</t>
+          <t>Astrobiology</t>
         </is>
       </c>
       <c r="B126">
@@ -1622,7 +1622,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Earth science</t>
+          <t>Astrophysics</t>
         </is>
       </c>
       <c r="B127">
@@ -1632,7 +1632,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Engineering management</t>
+          <t>Clinical psychology</t>
         </is>
       </c>
       <c r="B128">
@@ -1642,7 +1642,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Mathematical physics</t>
+          <t>Earth science</t>
         </is>
       </c>
       <c r="B129">
@@ -1652,7 +1652,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Reliability engineering</t>
+          <t>Economic policy</t>
         </is>
       </c>
       <c r="B130">
@@ -1662,47 +1662,47 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Engineering management</t>
         </is>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Applied psychology</t>
+          <t>Environmental protection</t>
         </is>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Astrophysics</t>
+          <t>Operations research</t>
         </is>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Cognitive psychology</t>
+          <t>Physical chemistry</t>
         </is>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Food science</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="B135">
@@ -1712,7 +1712,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Information retrieval</t>
+          <t>Applied psychology</t>
         </is>
       </c>
       <c r="B136">
@@ -1722,7 +1722,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Operations research</t>
+          <t>Art history</t>
         </is>
       </c>
       <c r="B137">
@@ -1732,7 +1732,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ophthalmology</t>
+          <t>Cognitive psychology</t>
         </is>
       </c>
       <c r="B138">
@@ -1742,7 +1742,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Physical chemistry</t>
+          <t>Mathematical economics</t>
         </is>
       </c>
       <c r="B139">
@@ -1752,7 +1752,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Soil science</t>
+          <t>Mathematics education</t>
         </is>
       </c>
       <c r="B140">
@@ -1762,7 +1762,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Virology</t>
+          <t>Medical education</t>
         </is>
       </c>
       <c r="B141">
@@ -1772,47 +1772,47 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Classical mechanics</t>
+          <t>Multimedia</t>
         </is>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Commerce</t>
+          <t>Psychoanalysis</t>
         </is>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Computer vision</t>
+          <t>Soil science</t>
         </is>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Demographic economics</t>
+          <t>Commerce</t>
         </is>
       </c>
       <c r="B146">
@@ -1822,7 +1822,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Economic policy</t>
+          <t>Composite material</t>
         </is>
       </c>
       <c r="B147">
@@ -1832,7 +1832,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Engineering physics</t>
+          <t>Computer vision</t>
         </is>
       </c>
       <c r="B148">
@@ -1842,7 +1842,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Environmental health</t>
+          <t>Demographic economics</t>
         </is>
       </c>
       <c r="B149">
@@ -1852,7 +1852,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Financial system</t>
+          <t>Environmental health</t>
         </is>
       </c>
       <c r="B150">
@@ -1862,7 +1862,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Geomorphology</t>
+          <t>Financial system</t>
         </is>
       </c>
       <c r="B151">
@@ -1872,7 +1872,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Geotechnical engineering</t>
+          <t>Food science</t>
         </is>
       </c>
       <c r="B152">
@@ -1882,7 +1882,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Gynecology</t>
+          <t>Geomorphology</t>
         </is>
       </c>
       <c r="B153">
@@ -1892,7 +1892,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Immunology</t>
+          <t>Gynecology</t>
         </is>
       </c>
       <c r="B154">
@@ -1902,7 +1902,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Medical education</t>
+          <t>Immunology</t>
         </is>
       </c>
       <c r="B155">
@@ -1912,7 +1912,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Nanotechnology</t>
         </is>
       </c>
       <c r="B156">
@@ -1922,7 +1922,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Multimedia</t>
+          <t>Polymer chemistry</t>
         </is>
       </c>
       <c r="B157">
@@ -1932,7 +1932,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Polymer chemistry</t>
+          <t>Remote sensing</t>
         </is>
       </c>
       <c r="B158">
@@ -1942,7 +1942,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Atmospheric sciences</t>
+          <t>Actuarial science</t>
         </is>
       </c>
       <c r="B159">
@@ -1952,7 +1952,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Biochemical engineering</t>
+          <t>Agricultural engineering</t>
         </is>
       </c>
       <c r="B160">
@@ -1962,7 +1962,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Cell biology</t>
+          <t>Atmospheric sciences</t>
         </is>
       </c>
       <c r="B161">
@@ -1972,7 +1972,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Chemical engineering</t>
+          <t>Biochemical engineering</t>
         </is>
       </c>
       <c r="B162">
@@ -1982,7 +1982,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Condensed matter physics</t>
+          <t>Bioinformatics</t>
         </is>
       </c>
       <c r="B163">
@@ -1992,7 +1992,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Economic history</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="B164">
@@ -2002,7 +2002,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Endocrinology</t>
+          <t>Cell biology</t>
         </is>
       </c>
       <c r="B165">
@@ -2012,7 +2012,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Ethnology</t>
+          <t>Chemical engineering</t>
         </is>
       </c>
       <c r="B166">
@@ -2022,7 +2022,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Forensic engineering</t>
+          <t>Classical mechanics</t>
         </is>
       </c>
       <c r="B167">
@@ -2032,7 +2032,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Human–computer interaction</t>
+          <t>Computational biology</t>
         </is>
       </c>
       <c r="B168">
@@ -2042,7 +2042,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>International economics</t>
+          <t>Computer architecture</t>
         </is>
       </c>
       <c r="B169">
@@ -2052,7 +2052,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Keynesian economics</t>
+          <t>Condensed matter physics</t>
         </is>
       </c>
       <c r="B170">
@@ -2062,7 +2062,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Labour economics</t>
+          <t>Economic history</t>
         </is>
       </c>
       <c r="B171">
@@ -2072,7 +2072,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Mathematics education</t>
+          <t>Endocrinology</t>
         </is>
       </c>
       <c r="B172">
@@ -2082,7 +2082,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Molecular biology</t>
+          <t>Engineering physics</t>
         </is>
       </c>
       <c r="B173">
@@ -2092,7 +2092,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Nanotechnology</t>
+          <t>Ethnology</t>
         </is>
       </c>
       <c r="B174">
@@ -2102,7 +2102,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Natural language processing</t>
+          <t>Forensic engineering</t>
         </is>
       </c>
       <c r="B175">
@@ -2112,7 +2112,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Nuclear engineering</t>
+          <t>Geochemistry</t>
         </is>
       </c>
       <c r="B176">
@@ -2122,7 +2122,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Nuclear physics</t>
+          <t>Human–computer interaction</t>
         </is>
       </c>
       <c r="B177">
@@ -2132,7 +2132,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Inorganic chemistry</t>
         </is>
       </c>
       <c r="B178">
@@ -2142,7 +2142,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Psychoanalysis</t>
+          <t>International economics</t>
         </is>
       </c>
       <c r="B179">
@@ -2152,7 +2152,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Radiology</t>
+          <t>Keynesian economics</t>
         </is>
       </c>
       <c r="B180">
@@ -2162,7 +2162,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Remote sensing</t>
+          <t>Labour economics</t>
         </is>
       </c>
       <c r="B181">
@@ -2172,7 +2172,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Theoretical computer science</t>
+          <t>Monetary economics</t>
         </is>
       </c>
       <c r="B182">
@@ -2182,10 +2182,60 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Welfare economics</t>
+          <t>Natural language processing</t>
         </is>
       </c>
       <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Nuclear engineering</t>
+        </is>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Nuclear physics</t>
+        </is>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Radiology</t>
+        </is>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Theoretical computer science</t>
+        </is>
+      </c>
+      <c r="B188">
         <v>1</v>
       </c>
     </row>
